--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_11.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_11.xlsx
@@ -508,442 +508,442 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_5</t>
+          <t>model_1_11_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997099504407301</v>
+        <v>0.9366975915674296</v>
       </c>
       <c r="C2" t="n">
-        <v>0.825402884365698</v>
+        <v>0.735359949504973</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8154183395745347</v>
+        <v>0.6516210017894641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999833439116215</v>
+        <v>0.9625821212604598</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00120733903386557</v>
+        <v>0.2634979650743824</v>
       </c>
       <c r="G2" t="n">
-        <v>1.167531716192372</v>
+        <v>1.769649236215632</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6602378966822817</v>
+        <v>1.246131476424141</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005083291512822361</v>
+        <v>0.2177863226110479</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05469018499528675</v>
+        <v>1.321174225193396</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03474678451116836</v>
+        <v>0.5133205285924014</v>
       </c>
       <c r="L2" t="n">
-        <v>1.018563171793275</v>
+        <v>0.9138009757513935</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0352940116331778</v>
+        <v>0.5214048137854583</v>
       </c>
       <c r="N2" t="n">
-        <v>143.4386729732216</v>
+        <v>36.66741926741681</v>
       </c>
       <c r="O2" t="n">
-        <v>284.773845516438</v>
+        <v>73.63200285564264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_3</t>
+          <t>model_1_11_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996652055906712</v>
+        <v>0.9367176393044226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8252534165543204</v>
+        <v>0.7351895374172659</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8155553363086552</v>
+        <v>0.6506246914504477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998447144596506</v>
+        <v>0.9628544485978698</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001393590666781767</v>
+        <v>0.2634145158339379</v>
       </c>
       <c r="G3" t="n">
-        <v>1.16853120813529</v>
+        <v>1.770788782630805</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6597478673078597</v>
+        <v>1.24969522073741</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004739177959338991</v>
+        <v>0.2162012736622865</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05717637087158486</v>
+        <v>1.322337263209415</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03733082729838393</v>
+        <v>0.5132392384005123</v>
       </c>
       <c r="L3" t="n">
-        <v>1.021426842197044</v>
+        <v>0.9138282747975117</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03791875051119689</v>
+        <v>0.5213222433543073</v>
       </c>
       <c r="N3" t="n">
-        <v>143.1517432981774</v>
+        <v>36.66805276344635</v>
       </c>
       <c r="O3" t="n">
-        <v>284.4869158413938</v>
+        <v>73.63263635167218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_9</t>
+          <t>model_1_11_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9996948568059332</v>
+        <v>0.9367462216610956</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8252324083804994</v>
+        <v>0.7329354677284738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8146416773884303</v>
+        <v>0.6375314561315162</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995359824273675</v>
+        <v>0.9659421716623459</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001270166691659856</v>
+        <v>0.2632955410112287</v>
       </c>
       <c r="G4" t="n">
-        <v>1.168671689890364</v>
+        <v>1.785861757018794</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6630159722885161</v>
+        <v>1.296528964283824</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001416140773969232</v>
+        <v>0.1982295480031578</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06408780443479836</v>
+        <v>1.339143968842124</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03563939802605897</v>
+        <v>0.5131233194966184</v>
       </c>
       <c r="L4" t="n">
-        <v>1.019529164420277</v>
+        <v>0.9138671954534068</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03620068291864177</v>
+        <v>0.5212044988435535</v>
       </c>
       <c r="N4" t="n">
-        <v>143.3372142676982</v>
+        <v>36.66895629527139</v>
       </c>
       <c r="O4" t="n">
-        <v>284.6723868109146</v>
+        <v>73.63353988349721</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_4</t>
+          <t>model_1_11_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996724866120381</v>
+        <v>0.9365582623749231</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8252302961737041</v>
+        <v>0.7309818893750504</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8155750469178659</v>
+        <v>0.6293690534836143</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998476174172791</v>
+        <v>0.9674487217260601</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001363283220961707</v>
+        <v>0.2640779265578391</v>
       </c>
       <c r="G5" t="n">
-        <v>1.168685814226931</v>
+        <v>1.798925344463538</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6596773636015999</v>
+        <v>1.325725405272071</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004650582248630494</v>
+        <v>0.1894608521481724</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05622638621457272</v>
+        <v>1.349802145684441</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03692266540976839</v>
+        <v>0.5138851297302142</v>
       </c>
       <c r="L5" t="n">
-        <v>1.020960856829561</v>
+        <v>0.9136112508935124</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03750416048084786</v>
+        <v>0.5219783068267976</v>
       </c>
       <c r="N5" t="n">
-        <v>143.1957187110238</v>
+        <v>36.66302208607268</v>
       </c>
       <c r="O5" t="n">
-        <v>284.5308912542402</v>
+        <v>73.62760567429849</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_8</t>
+          <t>model_1_11_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9996964739092585</v>
+        <v>0.9365208432164717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8251318529338555</v>
+        <v>0.7309338577640865</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8148973065420724</v>
+        <v>0.6282429059996218</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996170258161745</v>
+        <v>0.9676337477181389</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001263435455896722</v>
+        <v>0.2642336848038661</v>
       </c>
       <c r="G6" t="n">
-        <v>1.169344104625088</v>
+        <v>1.799246532067218</v>
       </c>
       <c r="H6" t="n">
-        <v>0.662101601628168</v>
+        <v>1.329753569524529</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001168803487368038</v>
+        <v>0.1883839303193643</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06266619040635968</v>
+        <v>1.351263142209204</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03554483726079952</v>
+        <v>0.5140366570623792</v>
       </c>
       <c r="L6" t="n">
-        <v>1.019425669807454</v>
+        <v>0.9135602971458338</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03610463291585557</v>
+        <v>0.5221322205629725</v>
       </c>
       <c r="N6" t="n">
-        <v>143.3478414320416</v>
+        <v>36.66184279531177</v>
       </c>
       <c r="O6" t="n">
-        <v>284.683013975258</v>
+        <v>73.62642638353759</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_6</t>
+          <t>model_1_11_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996921828130274</v>
+        <v>0.9365007710420543</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8250884794488867</v>
+        <v>0.7308346333773426</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8149771092860441</v>
+        <v>0.6276701634661654</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996491395502309</v>
+        <v>0.9677257641180731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001281297258517302</v>
+        <v>0.2643172357657415</v>
       </c>
       <c r="G7" t="n">
-        <v>1.16963414331879</v>
+        <v>1.799910045998262</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6618161518402104</v>
+        <v>1.331802236357182</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001070795198708476</v>
+        <v>0.1878483597836565</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06306860053427389</v>
+        <v>1.352006095388216</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03579521278770811</v>
+        <v>0.5141179200978522</v>
       </c>
       <c r="L7" t="n">
-        <v>1.019700299966246</v>
+        <v>0.9135329648232229</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03635895160702927</v>
+        <v>0.5222147634100209</v>
       </c>
       <c r="N7" t="n">
-        <v>143.3197644621227</v>
+        <v>36.66121049322454</v>
       </c>
       <c r="O7" t="n">
-        <v>284.6549370053391</v>
+        <v>73.62579408145035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_7</t>
+          <t>model_1_11_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996943601266278</v>
+        <v>0.9364797944903205</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8250453337237258</v>
+        <v>0.730746020852173</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8149647881303356</v>
+        <v>0.6270909609268835</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9996334928115176</v>
+        <v>0.9678175033155589</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001272234132528442</v>
+        <v>0.2644045512223414</v>
       </c>
       <c r="G8" t="n">
-        <v>1.169922658981609</v>
+        <v>1.800502598362093</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6618602238997582</v>
+        <v>1.3338740102561</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001118547667533765</v>
+        <v>0.1873144026719025</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06305982560342045</v>
+        <v>1.352755824710151</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03566839122428207</v>
+        <v>0.5142028308190664</v>
       </c>
       <c r="L8" t="n">
-        <v>1.019560951895819</v>
+        <v>0.9135044010080959</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03623013273075431</v>
+        <v>0.5223010113902146</v>
       </c>
       <c r="N8" t="n">
-        <v>143.3339615290984</v>
+        <v>36.66054991551019</v>
       </c>
       <c r="O8" t="n">
-        <v>284.6691340723148</v>
+        <v>73.62513350373601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_1</t>
+          <t>model_1_11_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995942062033473</v>
+        <v>0.9363325443334503</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8249698455020731</v>
+        <v>0.7300873857785</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8157803098490464</v>
+        <v>0.6234716669836027</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998017808475514</v>
+        <v>0.9683596172524432</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001689127511975875</v>
+        <v>0.2650174839314265</v>
       </c>
       <c r="G9" t="n">
-        <v>1.170427449067392</v>
+        <v>1.80490689413248</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6589431499985958</v>
+        <v>1.346820014832496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006049473996674033</v>
+        <v>0.1841590928380114</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06425916750616893</v>
+        <v>1.35748099502557</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04109899648380572</v>
+        <v>0.5147984886646682</v>
       </c>
       <c r="L9" t="n">
-        <v>1.025970802985775</v>
+        <v>0.9133038901561876</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04174626459450182</v>
+        <v>0.5229060502514453</v>
       </c>
       <c r="N9" t="n">
-        <v>142.7670862969218</v>
+        <v>36.65591895614517</v>
       </c>
       <c r="O9" t="n">
-        <v>284.1022588401382</v>
+        <v>73.62050254437099</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_2</t>
+          <t>model_1_11_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996039748863309</v>
+        <v>0.9362747332709525</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8248046500262775</v>
+        <v>0.7298558524939655</v>
       </c>
       <c r="D10" t="n">
-        <v>0.815801777129351</v>
+        <v>0.6222079030009484</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998226167600889</v>
+        <v>0.9685366540688546</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001648465108263934</v>
+        <v>0.2652581240224456</v>
       </c>
       <c r="G10" t="n">
-        <v>1.171532111974693</v>
+        <v>1.806455158272275</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6588663627816904</v>
+        <v>1.351340425321204</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0005413580292482762</v>
+        <v>0.1831286710580545</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06269512355076824</v>
+        <v>1.359300914682837</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04060129441611356</v>
+        <v>0.5150321582410613</v>
       </c>
       <c r="L10" t="n">
-        <v>1.025345607274822</v>
+        <v>0.9132251687093821</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04124072421676305</v>
+        <v>0.5231433998900827</v>
       </c>
       <c r="N10" t="n">
-        <v>142.8158213228496</v>
+        <v>36.65410374832548</v>
       </c>
       <c r="O10" t="n">
-        <v>284.150993866066</v>
+        <v>73.61868733655129</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995983451625952</v>
+        <v>0.9362441368834512</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8247817152417452</v>
+        <v>0.7297357870291949</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8160777159921033</v>
+        <v>0.6215649500100151</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998318812593253</v>
+        <v>0.9686243079447495</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001671898983609546</v>
+        <v>0.2653854823022462</v>
       </c>
       <c r="G11" t="n">
-        <v>1.171685476984466</v>
+        <v>1.807258036588046</v>
       </c>
       <c r="H11" t="n">
-        <v>0.65787934546948</v>
+        <v>1.353640230889216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005130835933371028</v>
+        <v>0.182618492075792</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0628762640803925</v>
+        <v>1.36022502226306</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04088886136357366</v>
+        <v>0.5151557844984818</v>
       </c>
       <c r="L11" t="n">
-        <v>1.02570590959391</v>
+        <v>0.913183505543423</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04153282005618416</v>
+        <v>0.5232689731374767</v>
       </c>
       <c r="N11" t="n">
-        <v>142.7875903652925</v>
+        <v>36.65314371955492</v>
       </c>
       <c r="O11" t="n">
-        <v>284.1227629085089</v>
+        <v>73.61772730778074</v>
       </c>
     </row>
   </sheetData>
